--- a/public/import/warga.xlsx
+++ b/public/import/warga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76984F72-76F2-499C-8F9F-370FB534FBB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E3813C-4E60-49D8-AC11-11230ABB90B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D28CAB05-E023-4B48-9F3B-C78CC33DCACA}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>Islam</t>
   </si>
   <si>
-    <t>Kristen</t>
-  </si>
-  <si>
     <t>Katolik</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Programmer</t>
+  </si>
+  <si>
+    <t>Protestan</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,10 +535,10 @@
         <v>1234567890123450</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" s="3">
         <v>37630</v>
@@ -547,16 +547,16 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -586,42 +586,42 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K9" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
